--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1111CA4-FD21-450E-9C01-ADE471E0430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B2BE2-5689-43B7-9D3C-AF00607276C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>さかなC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fishSize</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5E630-CFCB-45C4-BDC1-ADFB03216E04}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -472,8 +476,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -486,8 +493,11 @@
       <c r="D2" s="3">
         <v>2</v>
       </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -500,8 +510,11 @@
       <c r="D3" s="3">
         <v>3</v>
       </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -514,8 +527,11 @@
       <c r="D4" s="3">
         <v>5</v>
       </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
     </row>
   </sheetData>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B2BE2-5689-43B7-9D3C-AF00607276C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F03B77-775E-4D63-B7F7-F3865570EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
+    <workbookView xWindow="7125" yWindow="4080" windowWidth="21600" windowHeight="11295" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
@@ -52,19 +52,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>さかなA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さかなB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さかなC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fishSize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FuelTank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>displayName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリタンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量10リットルのポリタンク
+店員のおすすめは中の油を使ったアヒージョ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fishDescription</t>
+  </si>
+  <si>
+    <t>CoffeeCup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒーカップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラテアートまで描かれたコーヒーカップ
+なぜコーヒーがこぼれていないのかわからない</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ElectricGuitar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレキギター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨に濡れただけでも音が変わってしまうエレキギター
+海から出てきてまともに弾けるわけもなく</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -125,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,15 +516,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5E630-CFCB-45C4-BDC1-ADFB03216E04}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="56.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,12 +544,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" ht="50.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -496,10 +569,16 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>15</v>
@@ -513,10 +592,16 @@
       <c r="E3" s="3">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7" ht="50.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>30</v>
@@ -530,8 +615,14 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
     </row>
   </sheetData>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F03B77-775E-4D63-B7F7-F3865570EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DE0888-9D7F-4E28-9648-576F576E3627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="4080" windowWidth="21600" windowHeight="11295" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
+    <workbookView xWindow="6300" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,115 @@
     <rPh sb="36" eb="37">
       <t>ヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イワシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平安時代に日本統一を果たしたマリーアントワネットが
+"イワシを食べねば戦はできぬ"と言い残した貴重な肉料理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>basu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mebaru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kasago</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロマグロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニジマス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイカワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サケ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マダイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メバル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カサゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iwashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kuromaguro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nijimasu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oikawa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -152,7 +261,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -196,11 +304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5E630-CFCB-45C4-BDC1-ADFB03216E04}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -553,15 +661,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>10</v>
-      </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
@@ -570,61 +678,358 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="51" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="15" spans="1:7" ht="51" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B15" s="3">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="16" spans="1:7" ht="51" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B16" s="3">
         <v>30</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C16" s="3">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D16" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-    </row>
+    <row r="17" ht="51" customHeight="1"/>
+    <row r="18" ht="51" customHeight="1"/>
+    <row r="19" ht="51" customHeight="1"/>
+    <row r="20" ht="51" customHeight="1"/>
+    <row r="21" ht="51" customHeight="1"/>
+    <row r="22" ht="51" customHeight="1"/>
+    <row r="23" ht="51" customHeight="1"/>
+    <row r="24" ht="51" customHeight="1"/>
+    <row r="25" ht="51" customHeight="1"/>
+    <row r="26" ht="51" customHeight="1"/>
+    <row r="27" ht="51" customHeight="1"/>
+    <row r="28" ht="51" customHeight="1"/>
+    <row r="29" ht="51" customHeight="1"/>
+    <row r="30" ht="51" customHeight="1"/>
+    <row r="31" ht="51" customHeight="1"/>
+    <row r="32" ht="51" customHeight="1"/>
+    <row r="33" ht="51" customHeight="1"/>
+    <row r="34" ht="51" customHeight="1"/>
+    <row r="35" ht="51" customHeight="1"/>
+    <row r="36" ht="51" customHeight="1"/>
+    <row r="37" ht="51" customHeight="1"/>
+    <row r="38" ht="51" customHeight="1"/>
+    <row r="39" ht="51" customHeight="1"/>
+    <row r="40" ht="51" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DE0888-9D7F-4E28-9648-576F576E3627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C6339A-F229-4505-A535-24535D337883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="3450" windowWidth="21600" windowHeight="11295" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
@@ -199,14 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>iwashi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -232,6 +224,366 @@
   </si>
   <si>
     <t>koi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suzuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>utsubo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hamachi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hirame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ikura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スズキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウツボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハマチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒラメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イクラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>止まったら死んでしまうマグロにとって釣り人につられることは
+死刑宣告なのではないか</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ビト</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>シケイセンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣りあげられたニジマスに虹色の未来が来ることはない。</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニジイロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイかけると逃げるカワいいやつ
+ワワッ　オイカワ</t>
+    <rPh sb="6" eb="7">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今どきの若者は切り身が泳いでいると思っているそうだ
+彼らとの衝突はサケられない</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワカモノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイが釣れるなんてとってもおめでとう！</t>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある寒い夏マグロから産み落とされた一粒のイクラは
+母を探して海をさまよい続ける</t>
+    <rPh sb="2" eb="3">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒトツブ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハハ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハマチマックイーンはメジロを目指し日々トレーニングに
+励んでいたのになぁ</t>
+    <rPh sb="14" eb="16">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒビ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウツボはその容姿から恐ろしい魚とされていたが、
+根はとっても優しい男の子</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヤサ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリスビーの起源は平安時代に子供たちがエイを投げて
+遊んでいたことから来ていると言われている(諸説なし)</t>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ヘイアンジダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先日昇進し、家族に祝ってもらった翌日のことだった。</t>
+    <rPh sb="0" eb="2">
+      <t>センジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨクジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイコイコイコイ！！
+来た！コイが来た！！</t>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツフィッシングの王道！
+バカスカ釣りたい～！</t>
+    <rPh sb="11" eb="13">
+      <t>オウドウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煮付けにしよう。</t>
+    <rPh sb="0" eb="2">
+      <t>ニツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハーイ！タラチャンデース！
+このあと照焼にされて食べられるでーす！！</t>
+    <rPh sb="18" eb="20">
+      <t>テリヤキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棘に毒があるのでカサゴ同士も近づくことはできない
+『カサゴのジレンマ』…触れ合いたくても触れられない……</t>
+    <rPh sb="0" eb="1">
+      <t>トゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私ぃサバサバしてるから～
+とか言うくせにすぐ腐る</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bola！（こんにちは！）
+すり身になる運命</t>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョーズに釣れましたぁ～！</t>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -624,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5E630-CFCB-45C4-BDC1-ADFB03216E04}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -663,7 +1015,7 @@
     </row>
     <row r="2" spans="1:7" ht="52.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3">
         <v>5</v>
@@ -686,7 +1038,7 @@
     </row>
     <row r="3" spans="1:7" ht="51" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -703,13 +1055,13 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -727,12 +1079,12 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -749,13 +1101,13 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -772,13 +1124,13 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
+      <c r="G6" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>80</v>
@@ -796,12 +1148,12 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="51" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -818,8 +1170,8 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" customHeight="1">
@@ -841,8 +1193,8 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" t="s">
-        <v>35</v>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" customHeight="1">
@@ -865,7 +1217,7 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1">
@@ -887,8 +1239,8 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>35</v>
+      <c r="G11" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" customHeight="1">
@@ -910,11 +1262,11 @@
       <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" customHeight="1">
+      <c r="G12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="49.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -933,95 +1285,271 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51" customHeight="1">
+      <c r="G13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="49.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="51" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="49.5" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="51" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="51" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B24" s="3">
         <v>30</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D24" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="51" customHeight="1"/>
-    <row r="18" ht="51" customHeight="1"/>
-    <row r="19" ht="51" customHeight="1"/>
-    <row r="20" ht="51" customHeight="1"/>
-    <row r="21" ht="51" customHeight="1"/>
-    <row r="22" ht="51" customHeight="1"/>
-    <row r="23" ht="51" customHeight="1"/>
-    <row r="24" ht="51" customHeight="1"/>
-    <row r="25" ht="51" customHeight="1"/>
-    <row r="26" ht="51" customHeight="1"/>
-    <row r="27" ht="51" customHeight="1"/>
-    <row r="28" ht="51" customHeight="1"/>
-    <row r="29" ht="51" customHeight="1"/>
-    <row r="30" ht="51" customHeight="1"/>
-    <row r="31" ht="51" customHeight="1"/>
-    <row r="32" ht="51" customHeight="1"/>
+    <row r="25" spans="1:7" ht="48.75" customHeight="1"/>
+    <row r="26" spans="1:7" ht="53.25" customHeight="1"/>
+    <row r="27" spans="1:7" ht="53.25" customHeight="1"/>
+    <row r="28" spans="1:7" ht="53.25" customHeight="1"/>
+    <row r="29" spans="1:7" ht="53.25" customHeight="1"/>
+    <row r="30" spans="1:7" ht="51" customHeight="1"/>
+    <row r="31" spans="1:7" ht="51" customHeight="1"/>
+    <row r="32" spans="1:7" ht="51" customHeight="1"/>
     <row r="33" ht="51" customHeight="1"/>
     <row r="34" ht="51" customHeight="1"/>
     <row r="35" ht="51" customHeight="1"/>
@@ -1029,7 +1557,6 @@
     <row r="37" ht="51" customHeight="1"/>
     <row r="38" ht="51" customHeight="1"/>
     <row r="39" ht="51" customHeight="1"/>
-    <row r="40" ht="51" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C6339A-F229-4505-A535-24535D337883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51017BD-DCF4-4A3B-A648-C9582B6208CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
@@ -585,6 +585,33 @@
       <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kani</t>
   </si>
 </sst>
 </file>
@@ -976,72 +1003,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5E630-CFCB-45C4-BDC1-ADFB03216E04}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="56.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="51" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="51" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1050,113 +1083,128 @@
         <v>100</v>
       </c>
       <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" ht="51" customHeight="1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>30</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="51" customHeight="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>20</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="51" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" ht="51" customHeight="1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>50</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" ht="51" customHeight="1">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>80</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" ht="51" customHeight="1">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1165,159 +1213,180 @@
         <v>10</v>
       </c>
       <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" ht="51" customHeight="1">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>20</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" ht="51" customHeight="1">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>35</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="51" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" ht="51" customHeight="1">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>30</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" ht="51" customHeight="1">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>20</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
       <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>30</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
       </c>
       <c r="D13">
         <v>15</v>
       </c>
       <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>20</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B15">
-        <v>150</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -1326,230 +1395,310 @@
         <v>150</v>
       </c>
       <c r="E15">
+        <v>150</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="51" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8" ht="51" customHeight="1">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>50</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
       <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="51" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:8" ht="51" customHeight="1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>80</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
       </c>
       <c r="D17">
         <v>50</v>
       </c>
       <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="51" customHeight="1">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" ht="51" customHeight="1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>90</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
       </c>
       <c r="D18">
         <v>60</v>
       </c>
       <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="51" customHeight="1">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" ht="51" customHeight="1">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>30</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="51" customHeight="1">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:8" ht="51" customHeight="1">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>30</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>55</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" customHeight="1">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:8" ht="51" customHeight="1">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>100</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51" customHeight="1">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:8" ht="51" customHeight="1">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>10</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="51" customHeight="1">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:8" ht="51" customHeight="1">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>15</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>3</v>
       </c>
       <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="51" customHeight="1">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:8" ht="51" customHeight="1">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>30</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="48.75" customHeight="1"/>
-    <row r="26" spans="1:7" ht="53.25" customHeight="1"/>
-    <row r="27" spans="1:7" ht="53.25" customHeight="1"/>
-    <row r="28" spans="1:7" ht="53.25" customHeight="1"/>
-    <row r="29" spans="1:7" ht="53.25" customHeight="1"/>
-    <row r="30" spans="1:7" ht="51" customHeight="1"/>
-    <row r="31" spans="1:7" ht="51" customHeight="1"/>
-    <row r="32" spans="1:7" ht="51" customHeight="1"/>
+    <row r="25" spans="1:8" ht="48.75" customHeight="1">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3">
+        <v>25</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3">
+        <v>50</v>
+      </c>
+      <c r="E26" s="3">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="53.25" customHeight="1"/>
+    <row r="28" spans="1:8" ht="53.25" customHeight="1"/>
+    <row r="29" spans="1:8" ht="53.25" customHeight="1"/>
+    <row r="30" spans="1:8" ht="51" customHeight="1"/>
+    <row r="31" spans="1:8" ht="51" customHeight="1"/>
+    <row r="32" spans="1:8" ht="51" customHeight="1"/>
     <row r="33" ht="51" customHeight="1"/>
     <row r="34" ht="51" customHeight="1"/>
     <row r="35" ht="51" customHeight="1"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51017BD-DCF4-4A3B-A648-C9582B6208CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0017B510-551D-40B0-AC42-20F76F58312A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA809BD3-73C1-48D6-AB97-30EF20CA3D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1"/>
@@ -130,11 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平安時代に日本統一を果たしたマリーアントワネットが
-"イワシを食べねば戦はできぬ"と言い残した貴重な肉料理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>basu</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,6 +607,113 @@
   </si>
   <si>
     <t>kani</t>
+  </si>
+  <si>
+    <t>tyoutinankou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isidai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pengin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fugu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョウチンアンコウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イシダイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンギン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>medaka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メダカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>karei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平安時代に日本統一を果たしたマリーアントワネットが
+"イワシを食べねば戦はできぬ"と言い残したほど(諸説なし)</t>
+    <rPh sb="50" eb="52">
+      <t>ショセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定校推薦で進学したメダカは他よりも少し小さい</t>
+    <rPh sb="0" eb="5">
+      <t>シテイコウスイセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンガク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョウチンチンアンコウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメあたま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペンギンギン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャコシャコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1003,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5E630-CFCB-45C4-BDC1-ADFB03216E04}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1019,7 +1121,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1048,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -1066,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" customHeight="1">
@@ -1074,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1089,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
@@ -1100,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1115,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" customHeight="1">
@@ -1126,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1141,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" customHeight="1">
@@ -1152,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1167,10 +1269,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1">
@@ -1178,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>80</v>
@@ -1193,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1">
@@ -1204,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1219,10 +1321,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1">
@@ -1230,7 +1332,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -1245,10 +1347,10 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" customHeight="1">
@@ -1256,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -1271,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" customHeight="1">
@@ -1282,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1297,10 +1399,10 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
@@ -1308,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1323,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1">
@@ -1334,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -1349,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1">
@@ -1360,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1375,10 +1477,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1">
@@ -1386,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -1401,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" customHeight="1">
@@ -1412,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -1427,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="51" customHeight="1">
@@ -1438,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -1453,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="51" customHeight="1">
@@ -1464,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -1479,10 +1581,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51" customHeight="1">
@@ -1490,7 +1592,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -1505,10 +1607,10 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="51" customHeight="1">
@@ -1516,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -1531,10 +1633,10 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="51" customHeight="1">
@@ -1542,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1557,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51" customHeight="1">
@@ -1646,7 +1748,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3">
         <v>50</v>
@@ -1661,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="53.25" customHeight="1">
@@ -1672,7 +1774,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3">
         <v>50</v>
@@ -1687,25 +1789,666 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="53.25" customHeight="1"/>
-    <row r="28" spans="1:8" ht="53.25" customHeight="1"/>
-    <row r="29" spans="1:8" ht="53.25" customHeight="1"/>
-    <row r="30" spans="1:8" ht="51" customHeight="1"/>
-    <row r="31" spans="1:8" ht="51" customHeight="1"/>
-    <row r="32" spans="1:8" ht="51" customHeight="1"/>
-    <row r="33" ht="51" customHeight="1"/>
-    <row r="34" ht="51" customHeight="1"/>
-    <row r="35" ht="51" customHeight="1"/>
-    <row r="36" ht="51" customHeight="1"/>
-    <row r="37" ht="51" customHeight="1"/>
-    <row r="38" ht="51" customHeight="1"/>
-    <row r="39" ht="51" customHeight="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3">
+        <v>60</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="3">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51" customHeight="1">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="3">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="51" customHeight="1">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="51" customHeight="1">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="51" customHeight="1">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="51" customHeight="1">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="3">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>25</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="51" customHeight="1">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="51" customHeight="1">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="51" customHeight="1">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51" customHeight="1">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8447F-B0AC-461B-AF7A-79F28308C932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA27894-6886-4A6A-80ED-75B979652451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="-14640" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -67,10 +67,6 @@
     <t>クロマグロ</t>
   </si>
   <si>
-    <t>止まったら死んでしまうマグロにとって釣り人につられることは
-死刑宣告なのではないか</t>
-  </si>
-  <si>
     <t>nijimasu</t>
   </si>
   <si>
@@ -395,18 +391,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>小百合</t>
-    <rPh sb="0" eb="3">
-      <t>サユリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>クマノミ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サユリ</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -526,16 +511,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>超チンアンコウタイム突入</t>
-    <rPh sb="0" eb="1">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トツニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>実はイシダイとシマウマは同じチンチラ目チンチラ科
 マシンタイプでウシガエルと同じなのである</t>
     <rPh sb="0" eb="1">
@@ -591,98 +566,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ペンギンはこの世の中で最も崇高な生き物である</t>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>スウコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>モノ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>実はここだけの話最初にフグを食べた人は
-もうこの世の中に存在しない。</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画家志望の彼は父親に連れられボクシングを始めるが
-グローブが嵌まらず断念、現在は一部上場企業の経理をしている</t>
-    <rPh sb="0" eb="2">
-      <t>ガカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カレ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チチオヤ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ダンネン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>イチブジョウジョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キギョウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ケイリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>一般的に食用とはしないが焼いて食べると
 小骨が多くかなり食べずらい</t>
     <rPh sb="0" eb="3">
@@ -709,44 +592,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>べた褒めという言葉はベタの華麗に泳ぐ姿を見た人が
-その美しさを称賛することからできたといわれる(諸説無し)</t>
-    <rPh sb="2" eb="3">
-      <t>ボ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コトバ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カレイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スガタ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウツク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウサン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ショセツ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>28歳フリーターのアロワナは週9でバイトに入っているが今年
 就活を始めたので人の少ないバイト先はかなり焦っている。</t>
     <rPh sb="2" eb="3">
@@ -866,8 +711,362 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>名前にエンゼルと付くが中身は肉食系昆虫に貝類、甲殻類と
-なんでも食べてしまう</t>
+    <t>サヨリ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自分のことを本物の龍だと信じているタツノオトシゴは
+泳ぎに自信を持っているがとても遅い</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホンモノ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マンボウはよく水面に浮かんでいる
+多分気持ちいいからだろう</t>
+    <rPh sb="7" eb="9">
+      <t>スイメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>タブンキモ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>思春期真っ盛りなサヨリは自分の下あごが突き出ていることを
+とても恥ずかしいと思っている</t>
+    <rPh sb="0" eb="3">
+      <t>シシュンキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クマノミとイソギンチャクはいづれ合体し世界を
+混沌に沈めるだろう</t>
+    <rPh sb="16" eb="18">
+      <t>ガッタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コントン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナマズは全身で味を感じることができるらしい
+きっととてもしょっぱいだろう</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ピラニアはとても心優しい魚だがいつも気が付くと
+自分の周りに他の生き物が倒れているらしい</t>
+    <rPh sb="8" eb="10">
+      <t>ココロヤサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サンゴは植物のように見えるが実はイソギンチャクの仲間
+つまりいづれクマノミと合体する危険性があるだろう</t>
+    <rPh sb="4" eb="6">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガッタイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>キケンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中二病を患っているブルーギルは名前のギルの部分をとても
+気に入っているがその意味はエラの蓋の部分らしい</t>
+    <rPh sb="0" eb="3">
+      <t>チュウニビョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワズラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>高級食材のフカヒレだがこれは乾燥させたものを調理して
+使うためこのまま食べても全くおいしくはない</t>
+    <rPh sb="0" eb="4">
+      <t>コウキュウショクザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マッタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ラブカの名前はかわいらしいが漢字で書くと"羅鱶"になる
+こっちの方が見た目とあっている</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ペンギンはこの世の中で最も崇高な生き物である
+なぜならとても崇高だからだ</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>河豚食う馬鹿、河豚食わぬ馬鹿という言葉があるが
+毒があるとわかっていて食べるのは馬鹿で済むのだろうか</t>
+    <rPh sb="0" eb="2">
+      <t>フグ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フグ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>超チンアンコウタイム突入
+7        6        7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>止まったら死んでしまうマグロにとって釣り人につられることは死刑宣告なのではないか</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>べた褒めという言葉はベタの華麗に泳ぐ姿を見た人が
+その美しさを称賛することからきたといわれる(諸説無し)</t>
+    <rPh sb="2" eb="3">
+      <t>ボ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カレイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウツク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウサン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショセツ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名前にエンゼルと付くが中身は肉食系
+昆虫に貝類、甲殻類となんでも食べてしまう</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
@@ -883,17 +1082,57 @@
     <rPh sb="16" eb="17">
       <t>ケイ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="18" eb="20">
       <t>コンチュウ</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="21" eb="23">
       <t>カイルイ</t>
     </rPh>
-    <rPh sb="23" eb="26">
+    <rPh sb="24" eb="27">
       <t>コウカクルイ</t>
     </rPh>
     <rPh sb="32" eb="33">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画家志望の彼は父親の影響でボクシングを始めるがグローブが嵌まらず断念、現在は一部上場企業の経理をしている</t>
+    <rPh sb="0" eb="2">
+      <t>ガカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チチオヤ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ダンネン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>イチブジョウジョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケイリ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -952,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1300,7 +1542,7 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="56.125" customWidth="1"/>
+    <col min="8" max="8" width="53.375" customWidth="1"/>
     <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1379,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
@@ -1387,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1402,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" customHeight="1">
@@ -1413,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1428,10 +1670,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" customHeight="1">
@@ -1439,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1454,10 +1696,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1">
@@ -1465,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>80</v>
@@ -1480,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" customHeight="1">
@@ -1491,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1506,10 +1748,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1">
@@ -1517,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -1532,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" customHeight="1">
@@ -1543,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -1558,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" customHeight="1">
@@ -1569,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1584,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1">
@@ -1595,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1610,10 +1852,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="49.5" customHeight="1">
@@ -1621,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -1636,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1">
@@ -1647,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1662,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="49.5" customHeight="1">
@@ -1673,7 +1915,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -1688,10 +1930,10 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" customHeight="1">
@@ -1699,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -1714,10 +1956,10 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="51" customHeight="1">
@@ -1725,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -1740,10 +1982,10 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="51" customHeight="1">
@@ -1751,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>90</v>
@@ -1766,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51" customHeight="1">
@@ -1777,7 +2019,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -1792,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="51" customHeight="1">
@@ -1803,7 +2045,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -1818,10 +2060,10 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
         <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="51" customHeight="1">
@@ -1829,7 +2071,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1844,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51" customHeight="1">
@@ -1855,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
@@ -1870,10 +2112,10 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="51" customHeight="1">
@@ -1881,7 +2123,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4">
         <v>15</v>
@@ -1896,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51" customHeight="1">
@@ -1907,7 +2149,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
@@ -1922,10 +2164,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48.75" customHeight="1">
@@ -1933,7 +2175,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="4">
         <v>50</v>
@@ -1948,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="53.25" customHeight="1">
@@ -1959,7 +2201,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4">
         <v>50</v>
@@ -1974,10 +2216,10 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="53.25" customHeight="1">
@@ -1985,7 +2227,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4">
         <v>80</v>
@@ -2000,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>134</v>
+        <v>81</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="53.25" customHeight="1">
@@ -2011,7 +2253,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4">
         <v>20</v>
@@ -2026,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="53.25" customHeight="1">
@@ -2037,7 +2279,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4">
         <v>50</v>
@@ -2052,10 +2294,10 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="51" customHeight="1">
@@ -2063,7 +2305,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4">
         <v>80</v>
@@ -2078,10 +2320,10 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="51" customHeight="1">
@@ -2089,7 +2331,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4">
         <v>30</v>
@@ -2104,10 +2346,10 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="51" customHeight="1">
@@ -2115,7 +2357,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="4">
         <v>5</v>
@@ -2130,10 +2372,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
         <v>92</v>
-      </c>
-      <c r="H32" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="51" customHeight="1">
@@ -2141,7 +2383,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4">
         <v>30</v>
@@ -2156,10 +2398,10 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="51" customHeight="1">
@@ -2167,7 +2409,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4">
         <v>35</v>
@@ -2182,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="51" customHeight="1">
@@ -2193,25 +2435,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>98</v>
-      </c>
       <c r="H35" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="51" customHeight="1">
@@ -2219,25 +2461,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>100</v>
-      </c>
       <c r="H36" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="51" customHeight="1">
@@ -2245,25 +2487,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>102</v>
-      </c>
       <c r="H37" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="51" customHeight="1">
@@ -2271,25 +2513,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>104</v>
-      </c>
       <c r="H38" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="51.75" customHeight="1">
@@ -2297,25 +2539,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>106</v>
-      </c>
       <c r="H39" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="51.75" customHeight="1">
@@ -2323,25 +2565,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>108</v>
-      </c>
       <c r="H40" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="51.75" customHeight="1">
@@ -2349,7 +2591,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2364,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="53.25" customHeight="1">
@@ -2375,7 +2617,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -2390,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="53.25" customHeight="1">
@@ -2401,7 +2643,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2416,10 +2658,10 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="53.25" customHeight="1">
@@ -2427,7 +2669,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -2442,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
-      </c>
-      <c r="H44" t="s">
-        <v>117</v>
+        <v>138</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="53.25" customHeight="1">
@@ -2453,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -2468,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="53.25" customHeight="1">
@@ -2479,7 +2721,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -2494,10 +2736,10 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="53.25" customHeight="1">
@@ -2505,7 +2747,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2520,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
-      </c>
-      <c r="H47" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="53.25" customHeight="1">
@@ -2531,7 +2773,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -2546,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="53.25" customHeight="1">
@@ -2557,7 +2799,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -2572,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="53.25" customHeight="1">
@@ -2583,7 +2825,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2598,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
-      </c>
-      <c r="H50" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="53.25" customHeight="1">
@@ -2609,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2624,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17.25" customHeight="1">

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA27894-6886-4A6A-80ED-75B979652451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD176AD-5F27-4FF1-9576-B5FFCCF3C00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-14640" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -1133,6 +1133,384 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>ケイリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kujira</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tobiuo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tinanago</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bonbe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kakifurai</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kurione</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>harisenbon</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kajiki</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>noribentou</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>zarigani</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>robusuta</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ika</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jinbeizame</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nagagutu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sakekirimi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kurage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>umihebi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kaeru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kawahagi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>shati</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>天然水素水</t>
+    <rPh sb="0" eb="2">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カキフライ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クラゲ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トビウオ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チンアナゴ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボンベ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリオネ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハリセンボン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カジキ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>海苔弁当</t>
+    <rPh sb="0" eb="2">
+      <t>ノリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ベントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ザリガニ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロブスター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イカ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジンベイザメ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>長靴</t>
+    <rPh sb="0" eb="2">
+      <t>ナガグツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サケの切り身</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クジラ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウミヘビ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カエル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カワハギ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シャチ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oriduru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kousyudenwa</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>randoseru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>puranaria</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>折り鶴</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>公衆電話</t>
+    <rPh sb="0" eb="4">
+      <t>コウシュウデンワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランドセル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プラナリア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>uparupa</t>
+  </si>
+  <si>
+    <t>takosan</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sakaban</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>paseri</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>funamori</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウーパールーパー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タコさんウィンナー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サカバンバスピス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>船盛り</t>
+    <rPh sb="0" eb="2">
+      <t>フナモリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パセリ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sakefureku</t>
+  </si>
+  <si>
+    <t>nihonsyu</t>
+  </si>
+  <si>
+    <t>munieru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サケフレーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日本酒</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンシュ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サケのムニエル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nessi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ネッシー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ryuuguunotukai</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wakame</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iruka</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リュウグウノツカイ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワカメ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イルカ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dojou</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hamo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nishin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kazunoko</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドジョウ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハモ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ニシン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数の子</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1530,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2846,7 +3224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="53.25" customHeight="1">
+    <row r="51" spans="1:8" ht="49.5" customHeight="1">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2872,10 +3250,1306 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1"/>
+    <row r="52" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>180</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>183</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>184</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>185</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>187</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>190</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>191</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>192</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>194</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>195</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>197</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>204</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="48" customHeight="1">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>207</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="48" customHeight="1">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>213</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="48" customHeight="1">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="48" customHeight="1">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>215</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="48" customHeight="1">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>216</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="48" customHeight="1">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>217</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="48" customHeight="1">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>221</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="48" customHeight="1">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>222</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="48" customHeight="1">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>223</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="48" customHeight="1">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>225</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="48" customHeight="1">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>229</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="48" customHeight="1">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>230</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="48" customHeight="1">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>231</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="48" customHeight="1">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>236</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="48" customHeight="1">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>237</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="48" customHeight="1">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>238</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="48" customHeight="1">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>239</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="48" customHeight="1">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="48" customHeight="1">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>198</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="48" customHeight="1">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>198</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="48" customHeight="1">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>198</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="48" customHeight="1">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>198</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="48" customHeight="1">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>198</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="48" customHeight="1">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>198</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="48" customHeight="1">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>198</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="48" customHeight="1">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>198</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\free-sea\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545C451E-9623-43A1-85D6-B1E4A586AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE153B47-6339-4CEB-AE31-98AB067F306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>iwashi</t>
-  </si>
-  <si>
-    <t>イワシ</t>
   </si>
   <si>
     <t>平安時代に日本統一を果たしたマリーアントワネットが
@@ -1059,6 +1056,18 @@
   </si>
   <si>
     <t>nextMoveTime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hammer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハンマー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イワシ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1116,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,6 +1146,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1452,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="A1:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1487,10 +1499,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -1519,13 +1531,13 @@
         <v>1.5</v>
       </c>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" customHeight="1">
@@ -1533,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1547,14 +1559,14 @@
       <c r="F3">
         <v>1.5</v>
       </c>
-      <c r="G3">
-        <v>5</v>
+      <c r="G3" s="4">
+        <v>7</v>
       </c>
       <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51" customHeight="1">
@@ -1562,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1577,13 +1589,13 @@
         <v>1.5</v>
       </c>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" customHeight="1">
@@ -1591,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1605,14 +1617,14 @@
       <c r="F5">
         <v>1.5</v>
       </c>
-      <c r="G5">
-        <v>5</v>
+      <c r="G5" s="4">
+        <v>7</v>
       </c>
       <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" customHeight="1">
@@ -1620,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1635,13 +1647,13 @@
         <v>1.5</v>
       </c>
       <c r="G6" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="51" customHeight="1">
@@ -1649,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -1663,14 +1675,14 @@
       <c r="F7">
         <v>1.5</v>
       </c>
-      <c r="G7">
-        <v>5</v>
+      <c r="G7" s="4">
+        <v>7</v>
       </c>
       <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51" customHeight="1">
@@ -1678,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1693,13 +1705,13 @@
         <v>1.5</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="51" customHeight="1">
@@ -1707,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1721,14 +1733,14 @@
       <c r="F9">
         <v>1.5</v>
       </c>
-      <c r="G9">
-        <v>5</v>
+      <c r="G9" s="4">
+        <v>7</v>
       </c>
       <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1">
@@ -1736,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -1751,13 +1763,13 @@
         <v>1.5</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
         <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" customHeight="1">
@@ -1765,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -1779,14 +1791,14 @@
       <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="G11">
-        <v>5</v>
+      <c r="G11" s="4">
+        <v>7</v>
       </c>
       <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" customHeight="1">
@@ -1794,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -1809,13 +1821,13 @@
         <v>1.5</v>
       </c>
       <c r="G12" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.5" customHeight="1">
@@ -1823,7 +1835,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -1837,14 +1849,14 @@
       <c r="F13">
         <v>1.5</v>
       </c>
-      <c r="G13">
-        <v>5</v>
+      <c r="G13" s="4">
+        <v>7</v>
       </c>
       <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="49.5" customHeight="1">
@@ -1852,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1867,13 +1879,13 @@
         <v>1.5</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="49.5" customHeight="1">
@@ -1881,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -1895,14 +1907,14 @@
       <c r="F15">
         <v>1.5</v>
       </c>
-      <c r="G15">
-        <v>5</v>
+      <c r="G15" s="4">
+        <v>7</v>
       </c>
       <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51" customHeight="1">
@@ -1910,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1925,13 +1937,13 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
         <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="51" customHeight="1">
@@ -1939,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -1953,14 +1965,14 @@
       <c r="F17">
         <v>1.5</v>
       </c>
-      <c r="G17">
-        <v>5</v>
+      <c r="G17" s="4">
+        <v>7</v>
       </c>
       <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="51" customHeight="1">
@@ -1968,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -1983,13 +1995,13 @@
         <v>1.5</v>
       </c>
       <c r="G18" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="51" customHeight="1">
@@ -1997,7 +2009,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -2011,14 +2023,14 @@
       <c r="F19">
         <v>1.5</v>
       </c>
-      <c r="G19">
-        <v>5</v>
+      <c r="G19" s="4">
+        <v>7</v>
       </c>
       <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="51" customHeight="1">
@@ -2026,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -2041,13 +2053,13 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
         <v>62</v>
-      </c>
-      <c r="I20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="51" customHeight="1">
@@ -2055,7 +2067,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2069,14 +2081,14 @@
       <c r="F21">
         <v>1.5</v>
       </c>
-      <c r="G21">
-        <v>5</v>
+      <c r="G21" s="4">
+        <v>7</v>
       </c>
       <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" customHeight="1">
@@ -2084,7 +2096,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -2099,13 +2111,13 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="51" customHeight="1">
@@ -2113,7 +2125,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4">
         <v>3</v>
@@ -2127,14 +2139,14 @@
       <c r="F23">
         <v>1.5</v>
       </c>
-      <c r="G23">
-        <v>5</v>
+      <c r="G23" s="4">
+        <v>7</v>
       </c>
       <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="51" customHeight="1">
@@ -2142,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
@@ -2157,13 +2169,13 @@
         <v>1.5</v>
       </c>
       <c r="G24" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48.75" customHeight="1">
@@ -2171,7 +2183,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4">
         <v>25</v>
@@ -2185,14 +2197,14 @@
       <c r="F25">
         <v>1.5</v>
       </c>
-      <c r="G25">
-        <v>5</v>
+      <c r="G25" s="4">
+        <v>7</v>
       </c>
       <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="53.25" customHeight="1">
@@ -2200,7 +2212,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4">
         <v>50</v>
@@ -2215,13 +2227,13 @@
         <v>1.5</v>
       </c>
       <c r="G26" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="53.25" customHeight="1">
@@ -2229,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4">
         <v>60</v>
@@ -2243,14 +2255,14 @@
       <c r="F27">
         <v>1.5</v>
       </c>
-      <c r="G27">
-        <v>5</v>
+      <c r="G27" s="4">
+        <v>7</v>
       </c>
       <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="53.25" customHeight="1">
@@ -2258,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
@@ -2273,13 +2285,13 @@
         <v>1.5</v>
       </c>
       <c r="G28" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="53.25" customHeight="1">
@@ -2287,7 +2299,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4">
         <v>50</v>
@@ -2301,14 +2313,14 @@
       <c r="F29">
         <v>1.5</v>
       </c>
-      <c r="G29">
-        <v>5</v>
+      <c r="G29" s="4">
+        <v>7</v>
       </c>
       <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="51" customHeight="1">
@@ -2316,7 +2328,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4">
         <v>20</v>
@@ -2331,13 +2343,13 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="51" customHeight="1">
@@ -2345,7 +2357,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
@@ -2359,14 +2371,14 @@
       <c r="F31">
         <v>1.5</v>
       </c>
-      <c r="G31">
-        <v>5</v>
+      <c r="G31" s="4">
+        <v>7</v>
       </c>
       <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" customHeight="1">
@@ -2374,7 +2386,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -2389,13 +2401,13 @@
         <v>1.5</v>
       </c>
       <c r="G32" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" t="s">
         <v>98</v>
-      </c>
-      <c r="I32" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="51" customHeight="1">
@@ -2403,7 +2415,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4">
         <v>15</v>
@@ -2417,14 +2429,14 @@
       <c r="F33">
         <v>1.5</v>
       </c>
-      <c r="G33">
-        <v>5</v>
+      <c r="G33" s="4">
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="51" customHeight="1">
@@ -2432,7 +2444,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="4">
         <v>25</v>
@@ -2447,13 +2459,13 @@
         <v>1.5</v>
       </c>
       <c r="G34" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" customHeight="1">
@@ -2461,7 +2473,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="4">
         <v>30</v>
@@ -2475,14 +2487,14 @@
       <c r="F35">
         <v>1.5</v>
       </c>
-      <c r="G35">
-        <v>5</v>
+      <c r="G35" s="4">
+        <v>7</v>
       </c>
       <c r="H35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="51" customHeight="1">
@@ -2490,7 +2502,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -2505,13 +2517,13 @@
         <v>1.5</v>
       </c>
       <c r="G36" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="51" customHeight="1">
@@ -2519,7 +2531,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
@@ -2533,14 +2545,14 @@
       <c r="F37">
         <v>1.5</v>
       </c>
-      <c r="G37">
-        <v>5</v>
+      <c r="G37" s="4">
+        <v>7</v>
       </c>
       <c r="H37" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="51" customHeight="1">
@@ -2548,7 +2560,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4">
         <v>5</v>
@@ -2563,13 +2575,13 @@
         <v>1.5</v>
       </c>
       <c r="G38" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="51.75" customHeight="1">
@@ -2577,7 +2589,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4">
         <v>5</v>
@@ -2591,14 +2603,14 @@
       <c r="F39">
         <v>1.5</v>
       </c>
-      <c r="G39">
-        <v>5</v>
+      <c r="G39" s="4">
+        <v>7</v>
       </c>
       <c r="H39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="51.75" customHeight="1">
@@ -2606,7 +2618,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -2621,13 +2633,13 @@
         <v>1.5</v>
       </c>
       <c r="G40" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="51.75" customHeight="1">
@@ -2635,7 +2647,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="4">
         <v>15</v>
@@ -2649,14 +2661,14 @@
       <c r="F41">
         <v>1.5</v>
       </c>
-      <c r="G41">
-        <v>5</v>
+      <c r="G41" s="4">
+        <v>7</v>
       </c>
       <c r="H41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="53.25" customHeight="1">
@@ -2664,7 +2676,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4">
         <v>30</v>
@@ -2679,13 +2691,13 @@
         <v>1.5</v>
       </c>
       <c r="G42" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="53.25" customHeight="1">
@@ -2693,7 +2705,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4">
         <v>20</v>
@@ -2707,14 +2719,14 @@
       <c r="F43">
         <v>1.5</v>
       </c>
-      <c r="G43">
-        <v>5</v>
+      <c r="G43" s="4">
+        <v>7</v>
       </c>
       <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="53.25" customHeight="1">
@@ -2722,7 +2734,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4">
         <v>20</v>
@@ -2737,13 +2749,13 @@
         <v>1.5</v>
       </c>
       <c r="G44" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="53.25" customHeight="1">
@@ -2751,7 +2763,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="4">
         <v>10</v>
@@ -2765,14 +2777,14 @@
       <c r="F45">
         <v>1.5</v>
       </c>
-      <c r="G45">
-        <v>5</v>
+      <c r="G45" s="4">
+        <v>7</v>
       </c>
       <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="53.25" customHeight="1">
@@ -2780,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4">
         <v>50</v>
@@ -2795,13 +2807,13 @@
         <v>1.5</v>
       </c>
       <c r="G46" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="53.25" customHeight="1">
@@ -2809,7 +2821,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="4">
         <v>30</v>
@@ -2823,14 +2835,14 @@
       <c r="F47">
         <v>1.5</v>
       </c>
-      <c r="G47">
-        <v>5</v>
+      <c r="G47" s="4">
+        <v>7</v>
       </c>
       <c r="H47" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="53.25" customHeight="1">
@@ -2838,7 +2850,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" s="4">
         <v>150</v>
@@ -2853,13 +2865,13 @@
         <v>1.5</v>
       </c>
       <c r="G48" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="53.25" customHeight="1">
@@ -2867,7 +2879,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" s="4">
         <v>10</v>
@@ -2881,14 +2893,14 @@
       <c r="F49">
         <v>1.5</v>
       </c>
-      <c r="G49">
-        <v>5</v>
+      <c r="G49" s="4">
+        <v>7</v>
       </c>
       <c r="H49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="53.25" customHeight="1">
@@ -2896,7 +2908,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4">
         <v>90</v>
@@ -2911,13 +2923,13 @@
         <v>1.5</v>
       </c>
       <c r="G50" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H50" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="49.5" customHeight="1">
@@ -2925,7 +2937,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="4">
         <v>40</v>
@@ -2939,14 +2951,14 @@
       <c r="F51">
         <v>1.5</v>
       </c>
-      <c r="G51">
-        <v>5</v>
+      <c r="G51" s="4">
+        <v>7</v>
       </c>
       <c r="H51" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="49.5" customHeight="1">
@@ -2954,7 +2966,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="4">
         <v>100</v>
@@ -2969,13 +2981,13 @@
         <v>1.5</v>
       </c>
       <c r="G52" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H52" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="49.5" customHeight="1">
@@ -2983,7 +2995,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" s="4">
         <v>20</v>
@@ -2997,14 +3009,14 @@
       <c r="F53">
         <v>1.5</v>
       </c>
-      <c r="G53">
-        <v>5</v>
+      <c r="G53" s="4">
+        <v>7</v>
       </c>
       <c r="H53" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="49.5" customHeight="1">
@@ -3012,7 +3024,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="4">
         <v>15</v>
@@ -3027,13 +3039,13 @@
         <v>1.5</v>
       </c>
       <c r="G54" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="49.5" customHeight="1">
@@ -3041,7 +3053,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4">
         <v>50</v>
@@ -3055,14 +3067,14 @@
       <c r="F55">
         <v>1.5</v>
       </c>
-      <c r="G55">
-        <v>5</v>
+      <c r="G55" s="4">
+        <v>7</v>
       </c>
       <c r="H55" t="s">
+        <v>164</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="49.5" customHeight="1">
@@ -3070,7 +3082,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4">
         <v>35</v>
@@ -3085,13 +3097,13 @@
         <v>1.5</v>
       </c>
       <c r="G56" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="49.5" customHeight="1">
@@ -3099,7 +3111,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="4">
         <v>60</v>
@@ -3113,14 +3125,14 @@
       <c r="F57">
         <v>1.5</v>
       </c>
-      <c r="G57">
-        <v>5</v>
+      <c r="G57" s="4">
+        <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="49.5" customHeight="1">
@@ -3128,7 +3140,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4">
         <v>15</v>
@@ -3143,13 +3155,13 @@
         <v>1.5</v>
       </c>
       <c r="G58" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="49.5" customHeight="1">
@@ -3157,7 +3169,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="4">
         <v>10</v>
@@ -3171,14 +3183,14 @@
       <c r="F59">
         <v>1.5</v>
       </c>
-      <c r="G59">
-        <v>5</v>
+      <c r="G59" s="4">
+        <v>7</v>
       </c>
       <c r="H59" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="49.5" customHeight="1">
@@ -3186,7 +3198,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4">
         <v>80</v>
@@ -3201,13 +3213,13 @@
         <v>1.5</v>
       </c>
       <c r="G60" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H60" t="s">
+        <v>177</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="49.5" customHeight="1">
@@ -3215,7 +3227,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="4">
         <v>50</v>
@@ -3229,14 +3241,14 @@
       <c r="F61">
         <v>1.5</v>
       </c>
-      <c r="G61">
-        <v>5</v>
+      <c r="G61" s="4">
+        <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>180</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="49.5" customHeight="1">
@@ -3244,7 +3256,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4">
         <v>10</v>
@@ -3259,13 +3271,13 @@
         <v>1.5</v>
       </c>
       <c r="G62" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H62" t="s">
+        <v>183</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="49.5" customHeight="1">
@@ -3273,7 +3285,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4">
         <v>50</v>
@@ -3287,14 +3299,14 @@
       <c r="F63">
         <v>1.5</v>
       </c>
-      <c r="G63">
-        <v>5</v>
+      <c r="G63" s="4">
+        <v>7</v>
       </c>
       <c r="H63" t="s">
+        <v>186</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="49.5" customHeight="1">
@@ -3302,7 +3314,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4">
         <v>20</v>
@@ -3317,13 +3329,13 @@
         <v>1.5</v>
       </c>
       <c r="G64" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H64" t="s">
+        <v>189</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="49.5" customHeight="1">
@@ -3331,7 +3343,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" s="4">
         <v>100</v>
@@ -3345,14 +3357,14 @@
       <c r="F65">
         <v>1.5</v>
       </c>
-      <c r="G65">
-        <v>5</v>
+      <c r="G65" s="4">
+        <v>7</v>
       </c>
       <c r="H65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="49.5" customHeight="1">
@@ -3360,7 +3372,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="4">
         <v>30</v>
@@ -3375,13 +3387,13 @@
         <v>1.5</v>
       </c>
       <c r="G66" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
+        <v>195</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="49.5" customHeight="1">
@@ -3389,7 +3401,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4">
         <v>20</v>
@@ -3403,14 +3415,14 @@
       <c r="F67">
         <v>1.5</v>
       </c>
-      <c r="G67">
-        <v>5</v>
+      <c r="G67" s="4">
+        <v>7</v>
       </c>
       <c r="H67" t="s">
+        <v>198</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="49.5" customHeight="1">
@@ -3418,7 +3430,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="4">
         <v>10</v>
@@ -3433,13 +3445,13 @@
         <v>1.5</v>
       </c>
       <c r="G68" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H68" t="s">
+        <v>201</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="49.5" customHeight="1">
@@ -3447,7 +3459,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="4">
         <v>20</v>
@@ -3461,14 +3473,14 @@
       <c r="F69">
         <v>1.5</v>
       </c>
-      <c r="G69">
-        <v>5</v>
+      <c r="G69" s="4">
+        <v>7</v>
       </c>
       <c r="H69" t="s">
+        <v>204</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="49.5" customHeight="1">
@@ -3476,7 +3488,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" s="4">
         <v>5</v>
@@ -3491,13 +3503,13 @@
         <v>1.5</v>
       </c>
       <c r="G70" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H70" t="s">
+        <v>207</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="49.5" customHeight="1">
@@ -3505,7 +3517,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>
@@ -3519,14 +3531,14 @@
       <c r="F71">
         <v>1.5</v>
       </c>
-      <c r="G71">
-        <v>5</v>
+      <c r="G71" s="4">
+        <v>7</v>
       </c>
       <c r="H71" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="49.5" customHeight="1">
@@ -3534,7 +3546,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="4">
         <v>150</v>
@@ -3549,13 +3561,13 @@
         <v>1.5</v>
       </c>
       <c r="G72" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H72" t="s">
+        <v>213</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="49.5" customHeight="1">
@@ -3563,7 +3575,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -3577,14 +3589,14 @@
       <c r="F73">
         <v>1.5</v>
       </c>
-      <c r="G73">
-        <v>5</v>
+      <c r="G73" s="4">
+        <v>7</v>
       </c>
       <c r="H73" t="s">
+        <v>216</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="49.5" customHeight="1">
@@ -3592,7 +3604,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C74" s="4">
         <v>30</v>
@@ -3607,13 +3619,13 @@
         <v>1.5</v>
       </c>
       <c r="G74" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
+        <v>219</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="49.5" customHeight="1">
@@ -3621,7 +3633,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C75" s="4">
         <v>20</v>
@@ -3635,14 +3647,14 @@
       <c r="F75">
         <v>1.5</v>
       </c>
-      <c r="G75">
-        <v>5</v>
+      <c r="G75" s="4">
+        <v>7</v>
       </c>
       <c r="H75" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="48" customHeight="1">
@@ -3650,7 +3662,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" s="4">
         <v>5</v>
@@ -3665,13 +3677,13 @@
         <v>1.5</v>
       </c>
       <c r="G76" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H76" t="s">
+        <v>225</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48" customHeight="1">
@@ -3679,7 +3691,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C77" s="4">
         <v>50</v>
@@ -3693,14 +3705,14 @@
       <c r="F77">
         <v>1.5</v>
       </c>
-      <c r="G77">
-        <v>5</v>
+      <c r="G77" s="4">
+        <v>7</v>
       </c>
       <c r="H77" t="s">
+        <v>228</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="48" customHeight="1">
@@ -3708,7 +3720,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C78" s="4">
         <v>5</v>
@@ -3723,13 +3735,13 @@
         <v>1.5</v>
       </c>
       <c r="G78" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H78" t="s">
+        <v>231</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="48" customHeight="1">
@@ -3737,7 +3749,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="4">
         <v>70</v>
@@ -3751,14 +3763,14 @@
       <c r="F79">
         <v>1.5</v>
       </c>
-      <c r="G79">
-        <v>5</v>
+      <c r="G79" s="4">
+        <v>7</v>
       </c>
       <c r="H79" t="s">
+        <v>234</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="48" customHeight="1">
@@ -3766,7 +3778,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80" s="4">
         <v>200</v>
@@ -3781,13 +3793,13 @@
         <v>1.5</v>
       </c>
       <c r="G80" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H80" t="s">
+        <v>237</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="48" customHeight="1">
@@ -3795,7 +3807,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="4">
         <v>5</v>
@@ -3809,14 +3821,14 @@
       <c r="F81">
         <v>1.5</v>
       </c>
-      <c r="G81">
-        <v>5</v>
+      <c r="G81" s="4">
+        <v>7</v>
       </c>
       <c r="H81" t="s">
+        <v>240</v>
+      </c>
+      <c r="I81" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="48" customHeight="1">
@@ -3824,7 +3836,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C82" s="4">
         <v>25</v>
@@ -3839,13 +3851,13 @@
         <v>1.5</v>
       </c>
       <c r="G82" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H82" t="s">
+        <v>243</v>
+      </c>
+      <c r="I82" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="48" customHeight="1">
@@ -3853,7 +3865,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C83" s="4">
         <v>50</v>
@@ -3867,14 +3879,14 @@
       <c r="F83">
         <v>1.5</v>
       </c>
-      <c r="G83">
-        <v>5</v>
+      <c r="G83" s="4">
+        <v>7</v>
       </c>
       <c r="H83" t="s">
+        <v>246</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="48" customHeight="1">
@@ -3882,7 +3894,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C84" s="4">
         <v>40</v>
@@ -3897,13 +3909,13 @@
         <v>1.5</v>
       </c>
       <c r="G84" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H84" t="s">
+        <v>249</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="48" customHeight="1">
@@ -3911,7 +3923,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C85" s="4">
         <v>150</v>
@@ -3925,14 +3937,14 @@
       <c r="F85">
         <v>1.5</v>
       </c>
-      <c r="G85">
-        <v>5</v>
+      <c r="G85" s="4">
+        <v>7</v>
       </c>
       <c r="H85" t="s">
+        <v>252</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="48" customHeight="1">
@@ -3940,7 +3952,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86" s="4">
         <v>80</v>
@@ -3955,13 +3967,13 @@
         <v>1.5</v>
       </c>
       <c r="G86" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H86" t="s">
+        <v>255</v>
+      </c>
+      <c r="I86" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="48" customHeight="1">
@@ -3969,7 +3981,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="4">
         <v>10</v>
@@ -3983,14 +3995,14 @@
       <c r="F87">
         <v>1.5</v>
       </c>
-      <c r="G87">
-        <v>5</v>
+      <c r="G87" s="4">
+        <v>7</v>
       </c>
       <c r="H87" t="s">
+        <v>258</v>
+      </c>
+      <c r="I87" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="48" customHeight="1">
@@ -3998,7 +4010,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C88" s="4">
         <v>50</v>
@@ -4013,13 +4025,13 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H88" t="s">
+        <v>261</v>
+      </c>
+      <c r="I88" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="48" customHeight="1">
@@ -4027,7 +4039,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" s="4">
         <v>5</v>
@@ -4041,14 +4053,14 @@
       <c r="F89">
         <v>1.5</v>
       </c>
-      <c r="G89">
-        <v>5</v>
+      <c r="G89" s="4">
+        <v>7</v>
       </c>
       <c r="H89" t="s">
+        <v>264</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="48" customHeight="1">
@@ -4056,7 +4068,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90" s="4">
         <v>20</v>
@@ -4071,13 +4083,13 @@
         <v>1.5</v>
       </c>
       <c r="G90" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H90" t="s">
+        <v>267</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="48" customHeight="1">
@@ -4085,7 +4097,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="4">
         <v>20</v>
@@ -4099,14 +4111,14 @@
       <c r="F91">
         <v>1.5</v>
       </c>
-      <c r="G91">
-        <v>5</v>
+      <c r="G91" s="4">
+        <v>7</v>
       </c>
       <c r="H91" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="48" customHeight="1">
@@ -4114,7 +4126,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C92" s="4">
         <v>5</v>
@@ -4129,13 +4141,13 @@
         <v>1.5</v>
       </c>
       <c r="G92" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H92" t="s">
+        <v>273</v>
+      </c>
+      <c r="I92" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="48" customHeight="1">
@@ -4143,7 +4155,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -4157,14 +4169,14 @@
       <c r="F93">
         <v>1.5</v>
       </c>
-      <c r="G93">
-        <v>5</v>
+      <c r="G93" s="4">
+        <v>7</v>
       </c>
       <c r="H93" t="s">
+        <v>276</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="48" customHeight="1">
@@ -4172,7 +4184,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C94" s="4">
         <v>2</v>
@@ -4187,13 +4199,13 @@
         <v>1.5</v>
       </c>
       <c r="G94" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H94" t="s">
+        <v>279</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="48" customHeight="1">
@@ -4201,7 +4213,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95" s="4">
         <v>20</v>
@@ -4215,14 +4227,14 @@
       <c r="F95">
         <v>1.5</v>
       </c>
-      <c r="G95">
-        <v>5</v>
+      <c r="G95" s="4">
+        <v>7</v>
       </c>
       <c r="H95" t="s">
+        <v>282</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="48" customHeight="1">
@@ -4230,7 +4242,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" s="4">
         <v>15</v>
@@ -4245,13 +4257,13 @@
         <v>1.5</v>
       </c>
       <c r="G96" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H96" t="s">
+        <v>285</v>
+      </c>
+      <c r="I96" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="48" customHeight="1">
@@ -4259,7 +4271,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C97" s="4">
         <v>20</v>
@@ -4273,14 +4285,14 @@
       <c r="F97">
         <v>1.5</v>
       </c>
-      <c r="G97">
-        <v>5</v>
+      <c r="G97" s="4">
+        <v>7</v>
       </c>
       <c r="H97" t="s">
+        <v>288</v>
+      </c>
+      <c r="I97" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="48" customHeight="1">
@@ -4288,7 +4300,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C98" s="4">
         <v>50</v>
@@ -4303,13 +4315,13 @@
         <v>1.5</v>
       </c>
       <c r="G98" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H98" t="s">
+        <v>291</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="48" customHeight="1">
@@ -4317,7 +4329,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C99" s="4">
         <v>15</v>
@@ -4331,14 +4343,14 @@
       <c r="F99">
         <v>1.5</v>
       </c>
-      <c r="G99">
-        <v>5</v>
+      <c r="G99" s="4">
+        <v>7</v>
       </c>
       <c r="H99" t="s">
+        <v>294</v>
+      </c>
+      <c r="I99" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="48" customHeight="1">
@@ -4346,7 +4358,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C100" s="4">
         <v>20</v>
@@ -4361,21 +4373,21 @@
         <v>1.5</v>
       </c>
       <c r="G100" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
+        <v>297</v>
+      </c>
+      <c r="I100" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="48" customHeight="1">
+    </row>
+    <row r="101" spans="1:9" ht="48.75" customHeight="1">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C101" s="4">
         <v>50</v>
@@ -4389,14 +4401,43 @@
       <c r="F101">
         <v>1.5</v>
       </c>
-      <c r="G101">
-        <v>5</v>
+      <c r="G101" s="4">
+        <v>7</v>
       </c>
       <c r="H101" t="s">
+        <v>300</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>302</v>
+    </row>
+    <row r="102" spans="1:9" ht="48.75" customHeight="1">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="4">
+        <v>100</v>
+      </c>
+      <c r="D102" s="4">
+        <v>100</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G102" s="4">
+        <v>7</v>
+      </c>
+      <c r="H102" t="s">
+        <v>307</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
